--- a/testData/WebForm/TC008_WF_RRUserY_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC008_WF_RRUserY_OneConditionYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="118">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -319,6 +319,60 @@
   </si>
   <si>
     <t>2024-06-29 13:17:02</t>
+  </si>
+  <si>
+    <t>9840069993</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:58:51</t>
+  </si>
+  <si>
+    <t>9840078074</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:59:12</t>
+  </si>
+  <si>
+    <t>9840068121</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:59:33</t>
+  </si>
+  <si>
+    <t>9840057605</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:59:54</t>
+  </si>
+  <si>
+    <t>9840088166</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:00:15</t>
+  </si>
+  <si>
+    <t>9840083362</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:00:37</t>
+  </si>
+  <si>
+    <t>9840062703</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:00:59</t>
+  </si>
+  <si>
+    <t>9840068296</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:01:21</t>
+  </si>
+  <si>
+    <t>9840060854</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:01:43</t>
   </si>
 </sst>
 </file>
@@ -873,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -975,7 +1029,7 @@
         <v>76</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>70</v>
@@ -993,7 +1047,7 @@
         <v>80</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -1013,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1046,7 +1100,7 @@
         <v>80</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1066,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1099,7 +1153,7 @@
         <v>80</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1119,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1152,7 +1206,7 @@
         <v>80</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1172,7 +1226,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1205,7 +1259,7 @@
         <v>80</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1225,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1258,7 +1312,7 @@
         <v>80</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1278,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1311,7 +1365,7 @@
         <v>80</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1331,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1364,7 +1418,7 @@
         <v>80</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1384,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1417,7 +1471,7 @@
         <v>80</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC008_WF_RRUserY_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC008_WF_RRUserY_OneConditionYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="136">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -373,6 +373,60 @@
   </si>
   <si>
     <t>2024-07-04 14:01:43</t>
+  </si>
+  <si>
+    <t>9840053586</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:01:02</t>
+  </si>
+  <si>
+    <t>9840014832</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:01:31</t>
+  </si>
+  <si>
+    <t>9840011379</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:02:00</t>
+  </si>
+  <si>
+    <t>9840078173</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:02:29</t>
+  </si>
+  <si>
+    <t>9840040225</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:02:58</t>
+  </si>
+  <si>
+    <t>9840086933</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:03:28</t>
+  </si>
+  <si>
+    <t>9840034523</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:03:56</t>
+  </si>
+  <si>
+    <t>9840004800</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:04:25</t>
+  </si>
+  <si>
+    <t>9840016087</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:04:55</t>
   </si>
 </sst>
 </file>
@@ -927,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1029,7 +1083,7 @@
         <v>76</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>70</v>
@@ -1047,7 +1101,7 @@
         <v>80</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -1067,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1100,7 +1154,7 @@
         <v>80</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1120,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1207,7 @@
         <v>80</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1173,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1206,7 +1260,7 @@
         <v>80</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1226,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1259,7 +1313,7 @@
         <v>80</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1279,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1312,7 +1366,7 @@
         <v>80</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1332,7 +1386,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1365,7 +1419,7 @@
         <v>80</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1385,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1418,7 +1472,7 @@
         <v>80</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1438,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1471,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC008_WF_RRUserY_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC008_WF_RRUserY_OneConditionYN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -237,196 +237,100 @@
     <t>WF_RRUserY_OneConditionYN</t>
   </si>
   <si>
-    <t>9840086483</t>
-  </si>
-  <si>
-    <t>9840030039</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>WebFormId</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840053586</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:01:02</t>
+  </si>
+  <si>
+    <t>9840014832</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:01:31</t>
+  </si>
+  <si>
+    <t>9840011379</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:02:00</t>
+  </si>
+  <si>
+    <t>9840078173</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:02:29</t>
+  </si>
+  <si>
+    <t>9840040225</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:02:58</t>
+  </si>
+  <si>
+    <t>9840086933</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:03:28</t>
+  </si>
+  <si>
+    <t>9840034523</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:03:56</t>
+  </si>
+  <si>
+    <t>9840004800</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:04:25</t>
+  </si>
+  <si>
+    <t>9840016087</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:04:55</t>
+  </si>
+  <si>
+    <t>9840066418</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840019560</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9840014267</t>
-  </si>
-  <si>
-    <t>WebFormId</t>
-  </si>
-  <si>
-    <t>9840027111</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:13:48</t>
-  </si>
-  <si>
-    <t>9840034637</t>
+    <t>2024-12-30 15:39:17</t>
+  </si>
+  <si>
+    <t>9840014304</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:39:47</t>
+  </si>
+  <si>
+    <t>9840079752</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:16:26</t>
+  </si>
+  <si>
+    <t>9840077279</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2024-06-29 13:14:12</t>
-  </si>
-  <si>
-    <t>9840054136</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:14:36</t>
-  </si>
-  <si>
-    <t>9840086600</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:15:00</t>
-  </si>
-  <si>
-    <t>9840011039</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:15:25</t>
-  </si>
-  <si>
-    <t>9840091940</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:15:49</t>
-  </si>
-  <si>
-    <t>9840075314</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:16:14</t>
-  </si>
-  <si>
-    <t>9840056696</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:16:38</t>
-  </si>
-  <si>
-    <t>9840030188</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:17:02</t>
-  </si>
-  <si>
-    <t>9840069993</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:58:51</t>
-  </si>
-  <si>
-    <t>9840078074</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:59:12</t>
-  </si>
-  <si>
-    <t>9840068121</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:59:33</t>
-  </si>
-  <si>
-    <t>9840057605</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:59:54</t>
-  </si>
-  <si>
-    <t>9840088166</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:00:15</t>
-  </si>
-  <si>
-    <t>9840083362</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:00:37</t>
-  </si>
-  <si>
-    <t>9840062703</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:00:59</t>
-  </si>
-  <si>
-    <t>9840068296</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:01:21</t>
-  </si>
-  <si>
-    <t>9840060854</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:01:43</t>
-  </si>
-  <si>
-    <t>9840053586</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:01:02</t>
-  </si>
-  <si>
-    <t>9840014832</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:01:31</t>
-  </si>
-  <si>
-    <t>9840011379</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:02:00</t>
-  </si>
-  <si>
-    <t>9840078173</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:02:29</t>
-  </si>
-  <si>
-    <t>9840040225</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:02:58</t>
-  </si>
-  <si>
-    <t>9840086933</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:03:28</t>
-  </si>
-  <si>
-    <t>9840034523</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:03:56</t>
-  </si>
-  <si>
-    <t>9840004800</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:04:25</t>
-  </si>
-  <si>
-    <t>9840016087</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:04:55</t>
+    <t>2025-01-03 17:16:57</t>
   </si>
 </sst>
 </file>
@@ -776,55 +680,55 @@
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+      <selection activeCell="O4" sqref="O4:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="44" customWidth="true" width="11.453125"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="42" customWidth="true" width="15.28515625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="44" max="44" customWidth="true" width="11.42578125"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -955,7 +859,7 @@
         <v>27</v>
       </c>
       <c r="AR1" t="s" s="0">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AS1" t="s" s="0">
         <v>60</v>
@@ -964,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -981,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1080,10 +984,10 @@
         <v>71</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>70</v>
@@ -1098,13 +1002,13 @@
         <v>138</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1025,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1151,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="AS3" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1201,16 +1105,16 @@
         <v>55</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1254,16 +1158,16 @@
         <v>56</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1307,16 +1211,16 @@
         <v>57</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>127</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1333,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1360,16 +1264,16 @@
         <v>48</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,7 +1290,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1413,16 +1317,16 @@
         <v>54</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1466,16 +1370,16 @@
         <v>55</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1519,13 +1423,13 @@
         <v>56</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
